--- a/InstructionalMaterials/HashingWithProbing.xlsx
+++ b/InstructionalMaterials/HashingWithProbing.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollings/OneDrive - Rose-Hulman Institute of Technology/Courses/CSSE230/Fall19/InstructionalMaterials/Hashing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rosehulman-my.sharepoint.com/personal/hollings_rose-hulman_edu/Documents/Courses/CSSE230/Fall19/InstructionalMaterials/Hashing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{6FE4952C-38E2-BE4C-A91C-FA1BECE33721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64010169-63EF-404E-84E5-38A00910F6B8}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{6FE4952C-38E2-BE4C-A91C-FA1BECE33721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1ED00BC-D6E5-1949-A3C0-CB175837EA55}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{12238644-1FCF-B44D-831F-8B9702F6DA8D}"/>
+    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{12238644-1FCF-B44D-831F-8B9702F6DA8D}"/>
   </bookViews>
   <sheets>
     <sheet name="LinearProbe" sheetId="1" r:id="rId1"/>
-    <sheet name="QuadraticProbe" sheetId="2" r:id="rId2"/>
+    <sheet name="QuadraticProbe-PowerVersion" sheetId="2" r:id="rId2"/>
+    <sheet name="QuadraticProbe-AlgebraicTechniq" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>lambda</t>
   </si>
@@ -67,74 +68,20 @@
     <t>H</t>
   </si>
   <si>
-    <r>
-      <t>H+1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H+2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H+3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>Table Size:</t>
   </si>
   <si>
-    <r>
-      <t>H+4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>Ceiling(M/2):</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,11 +98,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,11 +150,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,6 +228,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,11 +565,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B51F82-3928-864F-A58F-B3EBDF7F06B6}">
   <dimension ref="F10:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
@@ -548,7 +577,7 @@
     <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="6:10">
+    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>0</v>
       </c>
@@ -556,7 +585,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="6:10">
+    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
@@ -564,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="6:10">
+    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>1</v>
       </c>
@@ -581,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="6:10">
+    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>1</v>
       </c>
@@ -602,7 +631,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="6:10">
+    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>2</v>
       </c>
@@ -623,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="6:10">
+    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F16">
         <v>3</v>
       </c>
@@ -644,7 +673,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>4</v>
       </c>
@@ -665,7 +694,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>5</v>
       </c>
@@ -686,7 +715,7 @@
         <v>1.78125</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>6</v>
       </c>
@@ -707,7 +736,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>7</v>
       </c>
@@ -728,7 +757,7 @@
         <v>1.9296875</v>
       </c>
     </row>
-    <row r="21" spans="6:10">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>8</v>
       </c>
@@ -749,7 +778,7 @@
         <v>1.9609375</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>9</v>
       </c>
@@ -770,7 +799,7 @@
         <v>1.978515625</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>10</v>
       </c>
@@ -791,7 +820,7 @@
         <v>1.98828125</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>11</v>
       </c>
@@ -812,7 +841,7 @@
         <v>1.99365234375</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>12</v>
       </c>
@@ -833,7 +862,7 @@
         <v>1.99658203125</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>13</v>
       </c>
@@ -854,7 +883,7 @@
         <v>1.9981689453125</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>14</v>
       </c>
@@ -875,7 +904,7 @@
         <v>1.9990234375</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F28">
         <v>15</v>
       </c>
@@ -896,7 +925,7 @@
         <v>1.999481201171875</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>16</v>
       </c>
@@ -917,7 +946,7 @@
         <v>1.999725341796875</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>17</v>
       </c>
@@ -938,7 +967,7 @@
         <v>1.9998550415039062</v>
       </c>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>18</v>
       </c>
@@ -959,7 +988,7 @@
         <v>1.9999237060546875</v>
       </c>
     </row>
-    <row r="32" spans="6:10">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F32">
         <v>19</v>
       </c>
@@ -980,7 +1009,7 @@
         <v>1.9999599456787109</v>
       </c>
     </row>
-    <row r="33" spans="6:10">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F33">
         <v>20</v>
       </c>
@@ -1008,44 +1037,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A11A6D-F14B-3342-9F1F-9E6B400FC372}">
-  <dimension ref="F8:N28"/>
+  <dimension ref="F6:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="7:14">
+    <row r="6" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="K6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4</v>
+      </c>
+      <c r="O7" s="7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>7</v>
+      </c>
+      <c r="R7" s="7">
+        <v>8</v>
+      </c>
+      <c r="S7" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="7:19" x14ac:dyDescent="0.2">
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="7:14" ht="20" thickBot="1">
+    <row r="9" spans="7:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="7:14">
+      <c r="K9" s="3" t="str">
+        <f>"H"&amp;K$7&amp;"^2"</f>
+        <v>H1^2</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" ref="L9:S9" si="0">"H"&amp;L$7&amp;"^2"</f>
+        <v>H2^2</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H3^2</v>
+      </c>
+      <c r="N9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H4^2</v>
+      </c>
+      <c r="O9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H5^2</v>
+      </c>
+      <c r="P9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H6^2</v>
+      </c>
+      <c r="Q9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H7^2</v>
+      </c>
+      <c r="R9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H8^2</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H9^2</v>
+      </c>
+    </row>
+    <row r="10" spans="7:19" x14ac:dyDescent="0.2">
       <c r="G10">
         <v>0</v>
       </c>
@@ -1054,23 +1149,43 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>MOD($J10+POWER(1,2),$G$28)</f>
+        <f>MOD($J10+POWER(K$7,2),$G$28)</f>
         <v>1</v>
       </c>
       <c r="L10">
-        <f>MOD($J10+POWER(2,2),$G$28)</f>
+        <f t="shared" ref="L10:S25" si="1">MOD($J10+POWER(L$7,2),$G$28)</f>
         <v>4</v>
       </c>
       <c r="M10">
-        <f>MOD($J10+POWER(3,2),$G$28)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N10">
-        <f>MOD($J10+POWER(4,2),$G$28)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="7:14">
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S10">
+        <f>MOD($J10+POWER(S$7,2),$G$28)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="7:19" x14ac:dyDescent="0.2">
       <c r="G11">
         <v>1</v>
       </c>
@@ -1079,23 +1194,43 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K26" si="0">MOD($J11+POWER(1,2),$G$28)</f>
+        <f t="shared" ref="K11:S26" si="2">MOD($J11+POWER(K$7,2),$G$28)</f>
         <v>2</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L26" si="1">MOD($J11+POWER(2,2),$G$28)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M26" si="2">MOD($J11+POWER(3,2),$G$28)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N26" si="3">MOD($J11+POWER(4,2),$G$28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="7:14">
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="7:19" x14ac:dyDescent="0.2">
       <c r="G12">
         <v>2</v>
       </c>
@@ -1104,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L12">
@@ -1112,15 +1247,932 @@
         <v>6</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="J26">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <f>COUNT(G10:G26)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <f>_xlfn.CEILING.MATH(G28/2,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K6:S6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C08312E-D98C-0F42-8011-BEBC4FCD4F20}">
+  <dimension ref="F6:S30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="K6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4</v>
+      </c>
+      <c r="O7" s="7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>7</v>
+      </c>
+      <c r="R7" s="7">
+        <v>8</v>
+      </c>
+      <c r="S7" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="7:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f>"H"&amp;K$7&amp;"^2"</f>
+        <v>H1^2</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" ref="L9:S9" si="0">"H"&amp;L$7&amp;"^2"</f>
+        <v>H2^2</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H3^2</v>
+      </c>
+      <c r="N9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H4^2</v>
+      </c>
+      <c r="O9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H5^2</v>
+      </c>
+      <c r="P9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H6^2</v>
+      </c>
+      <c r="Q9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H7^2</v>
+      </c>
+      <c r="R9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H8^2</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H9^2</v>
+      </c>
+    </row>
+    <row r="10" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>MOD(J10+(2*K$7-1),$G$28)</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:S10" si="1">MOD(K10+(2*L$7-1),$G$28)</f>
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:S11" si="2">MOD(J11+(2*K$7-1),$G$28)</f>
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:S12" si="3">MOD(J12+(2*K$7-1),$G$28)</f>
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="7:14">
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="7:19" x14ac:dyDescent="0.2">
       <c r="G13">
         <v>3</v>
       </c>
@@ -1129,23 +2181,43 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K13:S13" si="4">MOD(J13+(2*K$7-1),$G$28)</f>
         <v>4</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="7:14">
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="7:19" x14ac:dyDescent="0.2">
       <c r="G14">
         <v>4</v>
       </c>
@@ -1154,23 +2226,43 @@
         <v>4</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K14:S14" si="5">MOD(J14+(2*K$7-1),$G$28)</f>
         <v>5</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="7:14">
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="7:19" x14ac:dyDescent="0.2">
       <c r="G15">
         <v>5</v>
       </c>
@@ -1179,23 +2271,43 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K15:S15" si="6">MOD(J15+(2*K$7-1),$G$28)</f>
         <v>6</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="7:14">
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="7:19" x14ac:dyDescent="0.2">
       <c r="G16">
         <v>6</v>
       </c>
@@ -1204,23 +2316,43 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K16:S16" si="7">MOD(J16+(2*K$7-1),$G$28)</f>
         <v>7</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="6:14">
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G17">
         <v>7</v>
       </c>
@@ -1229,23 +2361,43 @@
         <v>7</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K17:S17" si="8">MOD(J17+(2*K$7-1),$G$28)</f>
         <v>8</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="6:14">
+      <c r="O17">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G18">
         <v>8</v>
       </c>
@@ -1254,23 +2406,43 @@
         <v>8</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K18:S18" si="9">MOD(J18+(2*K$7-1),$G$28)</f>
         <v>9</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="6:14">
+      <c r="O18">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G19">
         <v>9</v>
       </c>
@@ -1279,23 +2451,43 @@
         <v>9</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K19:S19" si="10">MOD(J19+(2*K$7-1),$G$28)</f>
         <v>10</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="6:14">
+      <c r="O19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G20">
         <v>10</v>
       </c>
@@ -1304,23 +2496,43 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K20:S20" si="11">MOD(J20+(2*K$7-1),$G$28)</f>
         <v>11</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G21">
         <v>11</v>
       </c>
@@ -1329,23 +2541,43 @@
         <v>11</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K21:S21" si="12">MOD(J21+(2*K$7-1),$G$28)</f>
         <v>12</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="6:14">
+      <c r="O21">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G22">
         <v>12</v>
       </c>
@@ -1354,23 +2586,43 @@
         <v>12</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K22:S22" si="13">MOD(J22+(2*K$7-1),$G$28)</f>
         <v>13</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="6:14">
+      <c r="O22">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G23">
         <v>13</v>
       </c>
@@ -1379,23 +2631,43 @@
         <v>13</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K23:S23" si="14">MOD(J23+(2*K$7-1),$G$28)</f>
         <v>14</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="6:14">
+      <c r="O23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G24">
         <v>14</v>
       </c>
@@ -1404,23 +2676,43 @@
         <v>14</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K24:S24" si="15">MOD(J24+(2*K$7-1),$G$28)</f>
         <v>15</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="6:14">
+      <c r="O24">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G25">
         <v>15</v>
       </c>
@@ -1429,23 +2721,43 @@
         <v>15</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K25:S25" si="16">MOD(J25+(2*K$7-1),$G$28)</f>
         <v>16</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="6:14">
+      <c r="O25">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G26">
         <v>16</v>
       </c>
@@ -1454,32 +2766,64 @@
         <v>16</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K26:S26" si="17">MOD(J26+(2*K$7-1),$G$28)</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="N26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="6:14">
+      <c r="O26">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <f>COUNT(G10:G26)</f>
         <v>17</v>
       </c>
     </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <f>_xlfn.CEILING.MATH(G28/2,1)</f>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K6:S6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/InstructionalMaterials/HashingWithProbing.xlsx
+++ b/InstructionalMaterials/HashingWithProbing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rosehulman-my.sharepoint.com/personal/hollings_rose-hulman_edu/Documents/Courses/CSSE230/Fall19/InstructionalMaterials/Hashing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{6FE4952C-38E2-BE4C-A91C-FA1BECE33721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1ED00BC-D6E5-1949-A3C0-CB175837EA55}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="8_{6FE4952C-38E2-BE4C-A91C-FA1BECE33721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A97A81B9-CADC-904E-8051-3D25D499F9AB}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{12238644-1FCF-B44D-831F-8B9702F6DA8D}"/>
+    <workbookView xWindow="3740" yWindow="5480" windowWidth="28040" windowHeight="17440" xr2:uid="{12238644-1FCF-B44D-831F-8B9702F6DA8D}"/>
   </bookViews>
   <sheets>
     <sheet name="LinearProbe" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>lambda</t>
   </si>
@@ -76,11 +76,23 @@
   <si>
     <t>Alternatives</t>
   </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t># of</t>
+  </si>
+  <si>
+    <t>probes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -216,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +261,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B51F82-3928-864F-A58F-B3EBDF7F06B6}">
-  <dimension ref="F10:J33"/>
+  <dimension ref="F10:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,40 +592,53 @@
     <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M10" s="12"/>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
+      <c r="L12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>1</v>
       </c>
@@ -630,8 +658,15 @@
         <f>SUM(I$14:I14)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="13">
+        <f>0.5 * (1 + (1/POWER((1 - L14),2)))</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>2</v>
       </c>
@@ -651,8 +686,15 @@
         <f>SUM(I$14:I15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>0.6</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" ref="M15:M16" si="3">0.5 * (1 + (1/POWER((1 - L15),2)))</f>
+        <v>3.6249999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F16">
         <v>3</v>
       </c>
@@ -672,8 +714,15 @@
         <f>SUM(I$14:I16)</f>
         <v>1.375</v>
       </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>0.7</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="3"/>
+        <v>6.0555555555555545</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>4</v>
       </c>
@@ -693,8 +742,15 @@
         <f>SUM(I$14:I17)</f>
         <v>1.625</v>
       </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" ref="M15:M22" si="4">0.5*(1+ (1/POWER(1-L17,2)))</f>
+        <v>13.000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>5</v>
       </c>
@@ -714,8 +770,15 @@
         <f>SUM(I$14:I18)</f>
         <v>1.78125</v>
       </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>0.9</v>
+      </c>
+      <c r="M18" s="13">
+        <f t="shared" si="4"/>
+        <v>50.500000000000028</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>6</v>
       </c>
@@ -735,8 +798,9 @@
         <f>SUM(I$14:I19)</f>
         <v>1.875</v>
       </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>7</v>
       </c>
@@ -756,8 +820,9 @@
         <f>SUM(I$14:I20)</f>
         <v>1.9296875</v>
       </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>8</v>
       </c>
@@ -777,8 +842,9 @@
         <f>SUM(I$14:I21)</f>
         <v>1.9609375</v>
       </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>9</v>
       </c>
@@ -798,8 +864,9 @@
         <f>SUM(I$14:I22)</f>
         <v>1.978515625</v>
       </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>10</v>
       </c>
@@ -820,7 +887,7 @@
         <v>1.98828125</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>11</v>
       </c>
@@ -841,7 +908,7 @@
         <v>1.99365234375</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>12</v>
       </c>
@@ -862,7 +929,7 @@
         <v>1.99658203125</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>13</v>
       </c>
@@ -883,7 +950,7 @@
         <v>1.9981689453125</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>14</v>
       </c>
@@ -904,7 +971,7 @@
         <v>1.9990234375</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F28">
         <v>15</v>
       </c>
@@ -925,7 +992,7 @@
         <v>1.999481201171875</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>16</v>
       </c>
@@ -946,7 +1013,7 @@
         <v>1.999725341796875</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>17</v>
       </c>
@@ -967,7 +1034,7 @@
         <v>1.9998550415039062</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>18</v>
       </c>
@@ -988,7 +1055,7 @@
         <v>1.9999237060546875</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F32">
         <v>19</v>
       </c>
